--- a/src/test/resources/testData/VehicleInsurance.xlsx
+++ b/src/test/resources/testData/VehicleInsurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina_\Selenium\Framework.VehicleInsurance\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8818A411-EECE-4EEC-BF1E-90349BCB6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F5C55B-8555-4537-BCF3-84A1BBDAE776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B636C506-5968-4520-BF64-26F93A4D0323}"/>
   </bookViews>
@@ -431,12 +431,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
